--- a/artfynd/A 59323-2021.xlsx
+++ b/artfynd/A 59323-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY74"/>
+  <dimension ref="A1:AY79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9044,6 +9044,588 @@
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>111949575</v>
+      </c>
+      <c r="B75" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Slättesmyran (Slättesmyran), Ång</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>580471.3517951096</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7053333.257918903</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Kamilla Andersson</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>111949678</v>
+      </c>
+      <c r="B76" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Slättesmyran (Slättesmyran), Ång</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>580467.4207067642</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7053330.04139028</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>19:11</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>111949591</v>
+      </c>
+      <c r="B77" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Slättesmyran (Slättesmyran), Ång</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>580476.1122211452</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7053321.356648902</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>111950184</v>
+      </c>
+      <c r="B78" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Slättesmyran (Slättesmyran), Ång</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>580446.7330953531</v>
+      </c>
+      <c r="R78" t="n">
+        <v>7053301.910512885</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>19:37</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>111949317</v>
+      </c>
+      <c r="B79" t="n">
+        <v>96265</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>219790</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Dactylorhiza maculata</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Slättesmyran (Slättesmyran), Ång</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>580500.003505226</v>
+      </c>
+      <c r="R79" t="n">
+        <v>7053328.641698814</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>18:54</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>18:54</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 59323-2021.xlsx
+++ b/artfynd/A 59323-2021.xlsx
@@ -9285,10 +9285,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111949591</v>
+        <v>111950184</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9297,32 +9297,28 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -9330,13 +9326,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>580476.1122211452</v>
+        <v>580446.7330953531</v>
       </c>
       <c r="R77" t="n">
-        <v>7053321.356648902</v>
+        <v>7053301.910512885</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9365,7 +9361,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9375,7 +9371,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9402,10 +9398,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111950184</v>
+        <v>111949591</v>
       </c>
       <c r="B78" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9414,28 +9410,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -9443,13 +9443,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>580446.7330953531</v>
+        <v>580476.1122211452</v>
       </c>
       <c r="R78" t="n">
-        <v>7053301.910512885</v>
+        <v>7053321.356648902</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AD78" t="b">

--- a/artfynd/A 59323-2021.xlsx
+++ b/artfynd/A 59323-2021.xlsx
@@ -9168,7 +9168,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111949678</v>
+        <v>111949591</v>
       </c>
       <c r="B76" t="n">
         <v>96348</v>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -9213,10 +9213,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>580467.4207067642</v>
+        <v>580476.1122211452</v>
       </c>
       <c r="R76" t="n">
-        <v>7053330.04139028</v>
+        <v>7053321.356648902</v>
       </c>
       <c r="S76" t="n">
         <v>2</v>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9398,10 +9398,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111949591</v>
+        <v>111949317</v>
       </c>
       <c r="B78" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9410,32 +9410,28 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -9443,10 +9439,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>580476.1122211452</v>
+        <v>580500.003505226</v>
       </c>
       <c r="R78" t="n">
-        <v>7053321.356648902</v>
+        <v>7053328.641698814</v>
       </c>
       <c r="S78" t="n">
         <v>2</v>
@@ -9478,7 +9474,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9488,7 +9484,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9515,10 +9511,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111949317</v>
+        <v>111949678</v>
       </c>
       <c r="B79" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9527,28 +9523,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
@@ -9556,10 +9556,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>580500.003505226</v>
+        <v>580467.4207067642</v>
       </c>
       <c r="R79" t="n">
-        <v>7053328.641698814</v>
+        <v>7053330.04139028</v>
       </c>
       <c r="S79" t="n">
         <v>2</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 59323-2021.xlsx
+++ b/artfynd/A 59323-2021.xlsx
@@ -9046,10 +9046,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111949575</v>
+        <v>111949317</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9058,37 +9058,28 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -9096,13 +9087,13 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>580471.3517951096</v>
+        <v>580500.003505226</v>
       </c>
       <c r="R75" t="n">
-        <v>7053333.257918903</v>
+        <v>7053328.641698814</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9131,7 +9122,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9141,7 +9132,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9156,22 +9147,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111949591</v>
+        <v>111950184</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9180,32 +9171,28 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9213,13 +9200,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>580476.1122211452</v>
+        <v>580446.7330953531</v>
       </c>
       <c r="R76" t="n">
-        <v>7053321.356648902</v>
+        <v>7053301.910512885</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9248,7 +9235,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9258,7 +9245,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9285,10 +9272,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111950184</v>
+        <v>111949678</v>
       </c>
       <c r="B77" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9297,28 +9284,32 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -9326,13 +9317,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>580446.7330953531</v>
+        <v>580467.4207067642</v>
       </c>
       <c r="R77" t="n">
-        <v>7053301.910512885</v>
+        <v>7053330.04139028</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9361,7 +9352,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9371,7 +9362,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9398,10 +9389,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111949317</v>
+        <v>111949575</v>
       </c>
       <c r="B78" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9410,28 +9401,37 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -9439,13 +9439,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>580500.003505226</v>
+        <v>580471.3517951096</v>
       </c>
       <c r="R78" t="n">
-        <v>7053328.641698814</v>
+        <v>7053333.257918903</v>
       </c>
       <c r="S78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9499,19 +9499,19 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111949678</v>
+        <v>111949591</v>
       </c>
       <c r="B79" t="n">
         <v>96348</v>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -9556,10 +9556,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>580467.4207067642</v>
+        <v>580476.1122211452</v>
       </c>
       <c r="R79" t="n">
-        <v>7053330.04139028</v>
+        <v>7053321.356648902</v>
       </c>
       <c r="S79" t="n">
         <v>2</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 59323-2021.xlsx
+++ b/artfynd/A 59323-2021.xlsx
@@ -9046,10 +9046,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111949317</v>
+        <v>111949575</v>
       </c>
       <c r="B75" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9058,28 +9058,37 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -9087,13 +9096,13 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>580500.003505226</v>
+        <v>580471.3517951096</v>
       </c>
       <c r="R75" t="n">
-        <v>7053328.641698814</v>
+        <v>7053333.257918903</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9122,7 +9131,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9132,7 +9141,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9147,22 +9156,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111950184</v>
+        <v>111949317</v>
       </c>
       <c r="B76" t="n">
-        <v>56543</v>
+        <v>96265</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9171,25 +9180,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>103021</v>
+        <v>219790</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9200,13 +9209,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>580446.7330953531</v>
+        <v>580500.003505226</v>
       </c>
       <c r="R76" t="n">
-        <v>7053301.910512885</v>
+        <v>7053328.641698814</v>
       </c>
       <c r="S76" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9235,7 +9244,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9245,7 +9254,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9389,10 +9398,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111949575</v>
+        <v>111950184</v>
       </c>
       <c r="B78" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9401,37 +9410,28 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -9439,13 +9439,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>580471.3517951096</v>
+        <v>580446.7330953531</v>
       </c>
       <c r="R78" t="n">
-        <v>7053333.257918903</v>
+        <v>7053301.910512885</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9499,12 +9499,12 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>

--- a/artfynd/A 59323-2021.xlsx
+++ b/artfynd/A 59323-2021.xlsx
@@ -9046,7 +9046,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111949575</v>
+        <v>111949591</v>
       </c>
       <c r="B75" t="n">
         <v>96348</v>
@@ -9081,12 +9081,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -9096,13 +9091,13 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>580471.3517951096</v>
+        <v>580476.1122211452</v>
       </c>
       <c r="R75" t="n">
-        <v>7053333.257918903</v>
+        <v>7053321.356648902</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9131,7 +9126,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9141,7 +9136,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9156,22 +9151,22 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111949317</v>
+        <v>111949575</v>
       </c>
       <c r="B76" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9180,28 +9175,37 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9209,13 +9213,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>580500.003505226</v>
+        <v>580471.3517951096</v>
       </c>
       <c r="R76" t="n">
-        <v>7053328.641698814</v>
+        <v>7053333.257918903</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9244,7 +9248,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9254,7 +9258,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9269,22 +9273,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111949678</v>
+        <v>111950184</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9293,32 +9297,28 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -9326,13 +9326,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>580467.4207067642</v>
+        <v>580446.7330953531</v>
       </c>
       <c r="R77" t="n">
-        <v>7053330.04139028</v>
+        <v>7053301.910512885</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9398,10 +9398,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111950184</v>
+        <v>111949317</v>
       </c>
       <c r="B78" t="n">
-        <v>56543</v>
+        <v>96265</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9410,25 +9410,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>103021</v>
+        <v>219790</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9439,13 +9439,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>580446.7330953531</v>
+        <v>580500.003505226</v>
       </c>
       <c r="R78" t="n">
-        <v>7053301.910512885</v>
+        <v>7053328.641698814</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9511,7 +9511,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111949591</v>
+        <v>111949678</v>
       </c>
       <c r="B79" t="n">
         <v>96348</v>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -9556,10 +9556,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>580476.1122211452</v>
+        <v>580467.4207067642</v>
       </c>
       <c r="R79" t="n">
-        <v>7053321.356648902</v>
+        <v>7053330.04139028</v>
       </c>
       <c r="S79" t="n">
         <v>2</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 59323-2021.xlsx
+++ b/artfynd/A 59323-2021.xlsx
@@ -9046,10 +9046,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111949591</v>
+        <v>111950184</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9058,32 +9058,28 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -9091,13 +9087,13 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>580476.1122211452</v>
+        <v>580446.7330953531</v>
       </c>
       <c r="R75" t="n">
-        <v>7053321.356648902</v>
+        <v>7053301.910512885</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9126,7 +9122,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9136,7 +9132,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9163,7 +9159,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111949575</v>
+        <v>111949591</v>
       </c>
       <c r="B76" t="n">
         <v>96348</v>
@@ -9198,12 +9194,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -9213,13 +9204,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>580471.3517951096</v>
+        <v>580476.1122211452</v>
       </c>
       <c r="R76" t="n">
-        <v>7053333.257918903</v>
+        <v>7053321.356648902</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9248,7 +9239,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9258,7 +9249,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9273,22 +9264,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111950184</v>
+        <v>111949678</v>
       </c>
       <c r="B77" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9297,28 +9288,32 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -9326,13 +9321,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>580446.7330953531</v>
+        <v>580467.4207067642</v>
       </c>
       <c r="R77" t="n">
-        <v>7053301.910512885</v>
+        <v>7053330.04139028</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9361,7 +9356,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9371,7 +9366,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9398,10 +9393,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111949317</v>
+        <v>111949575</v>
       </c>
       <c r="B78" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9410,28 +9405,37 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -9439,13 +9443,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>580500.003505226</v>
+        <v>580471.3517951096</v>
       </c>
       <c r="R78" t="n">
-        <v>7053328.641698814</v>
+        <v>7053333.257918903</v>
       </c>
       <c r="S78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9474,7 +9478,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9484,7 +9488,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9499,22 +9503,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111949678</v>
+        <v>111949317</v>
       </c>
       <c r="B79" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9523,32 +9527,28 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
@@ -9556,10 +9556,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>580467.4207067642</v>
+        <v>580500.003505226</v>
       </c>
       <c r="R79" t="n">
-        <v>7053330.04139028</v>
+        <v>7053328.641698814</v>
       </c>
       <c r="S79" t="n">
         <v>2</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AD79" t="b">

--- a/artfynd/A 59323-2021.xlsx
+++ b/artfynd/A 59323-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY79"/>
+  <dimension ref="A1:AY81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9046,10 +9046,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111950184</v>
+        <v>111949591</v>
       </c>
       <c r="B75" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9058,28 +9058,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
@@ -9087,13 +9091,13 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>580446.7330953531</v>
+        <v>580476</v>
       </c>
       <c r="R75" t="n">
-        <v>7053301.910512885</v>
+        <v>7053321</v>
       </c>
       <c r="S75" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9122,7 +9126,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -9132,7 +9136,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>19:07</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9159,10 +9163,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111949591</v>
+        <v>111949317</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9171,32 +9175,28 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9204,10 +9204,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>580476.1122211452</v>
+        <v>580500</v>
       </c>
       <c r="R76" t="n">
-        <v>7053321.356648902</v>
+        <v>7053329</v>
       </c>
       <c r="S76" t="n">
         <v>2</v>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9276,10 +9276,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111949678</v>
+        <v>111950184</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9288,32 +9288,28 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
@@ -9321,13 +9317,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>580467.4207067642</v>
+        <v>580447</v>
       </c>
       <c r="R77" t="n">
-        <v>7053330.04139028</v>
+        <v>7053302</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9356,7 +9352,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9366,7 +9362,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9393,7 +9389,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111949575</v>
+        <v>111949678</v>
       </c>
       <c r="B78" t="n">
         <v>96348</v>
@@ -9428,12 +9424,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -9443,13 +9434,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>580471.3517951096</v>
+        <v>580467</v>
       </c>
       <c r="R78" t="n">
-        <v>7053333.257918903</v>
+        <v>7053330</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9478,7 +9469,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9488,7 +9479,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9503,22 +9494,22 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111949317</v>
+        <v>111949575</v>
       </c>
       <c r="B79" t="n">
-        <v>96265</v>
+        <v>96348</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9527,28 +9518,37 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
@@ -9556,13 +9556,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>580500.003505226</v>
+        <v>580471</v>
       </c>
       <c r="R79" t="n">
-        <v>7053328.641698814</v>
+        <v>7053333</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9616,15 +9616,246 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>112230127</v>
+      </c>
+      <c r="B80" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Slättesmyran (Slättesmyran), Ång</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>580465</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7053325</v>
+      </c>
+      <c r="S80" t="n">
+        <v>25</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>14:24</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>112229883</v>
+      </c>
+      <c r="B81" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Slättesmyran (Slättesmyran), Ång</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>580571</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7053335</v>
+      </c>
+      <c r="S81" t="n">
+        <v>25</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Ramsele</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>14:09</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>14:09</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 59323-2021.xlsx
+++ b/artfynd/A 59323-2021.xlsx
@@ -9049,7 +9049,7 @@
         <v>111949591</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9163,10 +9163,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111949317</v>
+        <v>111949575</v>
       </c>
       <c r="B76" t="n">
-        <v>96265</v>
+        <v>96720</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9175,28 +9175,37 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9204,13 +9213,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>580500</v>
+        <v>580471</v>
       </c>
       <c r="R76" t="n">
-        <v>7053329</v>
+        <v>7053333</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9239,7 +9248,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9249,7 +9258,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9264,12 +9273,12 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
@@ -9279,7 +9288,7 @@
         <v>111950184</v>
       </c>
       <c r="B77" t="n">
-        <v>56543</v>
+        <v>56575</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9389,10 +9398,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111949678</v>
+        <v>111949317</v>
       </c>
       <c r="B78" t="n">
-        <v>96348</v>
+        <v>96637</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9401,32 +9410,28 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -9434,10 +9439,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>580467</v>
+        <v>580500</v>
       </c>
       <c r="R78" t="n">
-        <v>7053330</v>
+        <v>7053329</v>
       </c>
       <c r="S78" t="n">
         <v>2</v>
@@ -9469,7 +9474,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9479,7 +9484,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9506,10 +9511,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111949575</v>
+        <v>111949678</v>
       </c>
       <c r="B79" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9541,12 +9546,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -9556,13 +9556,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>580471</v>
+        <v>580467</v>
       </c>
       <c r="R79" t="n">
-        <v>7053333</v>
+        <v>7053330</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9616,12 +9616,12 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
@@ -9631,7 +9631,7 @@
         <v>112230127</v>
       </c>
       <c r="B80" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>112229883</v>
       </c>
       <c r="B81" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>

--- a/artfynd/A 59323-2021.xlsx
+++ b/artfynd/A 59323-2021.xlsx
@@ -9049,7 +9049,7 @@
         <v>111949591</v>
       </c>
       <c r="B75" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9163,10 +9163,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111949575</v>
+        <v>111950184</v>
       </c>
       <c r="B76" t="n">
-        <v>96720</v>
+        <v>56575</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9175,37 +9175,28 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9213,13 +9204,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>580471</v>
+        <v>580447</v>
       </c>
       <c r="R76" t="n">
-        <v>7053333</v>
+        <v>7053302</v>
       </c>
       <c r="S76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9248,7 +9239,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -9258,7 +9249,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>19:05</t>
+          <t>19:37</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9273,22 +9264,22 @@
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Kamilla Andersson</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111950184</v>
+        <v>111949317</v>
       </c>
       <c r="B77" t="n">
-        <v>56575</v>
+        <v>96652</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9297,25 +9288,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>103021</v>
+        <v>219790</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9326,13 +9317,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>580447</v>
+        <v>580500</v>
       </c>
       <c r="R77" t="n">
-        <v>7053302</v>
+        <v>7053329</v>
       </c>
       <c r="S77" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9361,7 +9352,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
@@ -9371,7 +9362,7 @@
       </c>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>19:37</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9398,10 +9389,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111949317</v>
+        <v>111949678</v>
       </c>
       <c r="B78" t="n">
-        <v>96637</v>
+        <v>96735</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9410,28 +9401,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>219790</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
@@ -9439,10 +9434,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>580500</v>
+        <v>580467</v>
       </c>
       <c r="R78" t="n">
-        <v>7053329</v>
+        <v>7053330</v>
       </c>
       <c r="S78" t="n">
         <v>2</v>
@@ -9474,7 +9469,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
@@ -9484,7 +9479,7 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>19:11</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9511,10 +9506,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111949678</v>
+        <v>111949575</v>
       </c>
       <c r="B79" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9546,7 +9541,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -9556,13 +9556,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>580467</v>
+        <v>580471</v>
       </c>
       <c r="R79" t="n">
-        <v>7053330</v>
+        <v>7053333</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>19:11</t>
+          <t>19:05</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9616,12 +9616,12 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Kamilla Andersson</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
@@ -9749,7 +9749,7 @@
         <v>112229883</v>
       </c>
       <c r="B81" t="n">
-        <v>90794</v>
+        <v>90808</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
